--- a/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/_image/send_sync_ok_pattern.xlsx
+++ b/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/_image/send_sync_ok_pattern.xlsx
@@ -229,10 +229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EXPECTED_REQUEST_BODY_MESSAGES[case1]=ProjectInsertMessage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ProjectInsertMessage</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -589,6 +585,10 @@
   </si>
   <si>
     <t>EXPECTED_REQUEST_HEADER_MESSAGES[case1]=ProjectInsertMessage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXPECTED_REQUEST_BODY_MESSAGES[case1]=ProjectInsertMessage</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1064,25 +1064,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>2266949</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="10" name="角丸四角形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="3952875"/>
-          <a:ext cx="1419225" cy="114300"/>
+          <a:off x="9524" y="10172699"/>
+          <a:ext cx="2257425" cy="171451"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1126,85 +1126,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1419225</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>2257424</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvPr id="11" name="角丸四角形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5229225"/>
-          <a:ext cx="1419225" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1295401</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="6505574"/>
-          <a:ext cx="1295400" cy="161925"/>
+          <a:off x="0" y="11734800"/>
+          <a:ext cx="2257424" cy="161926"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1248,24 +1187,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvPr id="12" name="角丸四角形 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8067674"/>
-          <a:ext cx="1295400" cy="161925"/>
+          <a:off x="0" y="12992099"/>
+          <a:ext cx="2133600" cy="200026"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1309,236 +1248,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2162174</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="13" name="角丸四角形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10467975"/>
-          <a:ext cx="7581900" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>"EXPECTED_REQUEST_HEADER_MESSAGESS"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>"EXPECTED_REQUEST_BODY_MESSAGESS"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>をそれぞれ、連続で記述する。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19050" y="4086225"/>
-          <a:ext cx="6343650" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>"RESPONSE_HEADER_MESSAGES"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>"RESPONSE_BODY_MESSAGES"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>をそれぞれ、連続で記述する。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1876425</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="10725149"/>
-          <a:ext cx="1866900" cy="171451"/>
+          <a:off x="0" y="14573250"/>
+          <a:ext cx="2162174" cy="142876"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1582,447 +1309,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1866900</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12020549"/>
-          <a:ext cx="1866900" cy="171451"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="角丸四角形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="13277849"/>
-          <a:ext cx="1752600" cy="152401"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="14858999"/>
-          <a:ext cx="1752600" cy="152401"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7915275"/>
-          <a:ext cx="5934075" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6115050" y="7896225"/>
-          <a:ext cx="2247900" cy="666750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>同一電文については、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>no</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>の値を変えてまとめて記述する。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4905375" y="13944600"/>
-          <a:ext cx="3257550" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>同一電文については、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>no</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>の値を変えてまとめて記述する。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2068,6 +1361,208 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="線吹き出し 1 (枠付き) 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200650" y="12925425"/>
+          <a:ext cx="2981325" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 277061"/>
+            <a:gd name="adj4" fmla="val -46503"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・同一リクエスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>の電文については、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>no</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>の値を変えてまとめて記述する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1190627</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="線吹き出し 1 (枠付き) 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="9934575"/>
+          <a:ext cx="2943227" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 101448"/>
+            <a:gd name="adj4" fmla="val -38439"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>同一データタイプは、それぞれまとめて記述する。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2364,10 +1859,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2394,7 +1889,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="28.5">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2464,7 +1959,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>1</v>
@@ -2473,7 +1968,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="14"/>
@@ -2534,7 +2029,7 @@
     </row>
     <row r="8" spans="1:18" ht="28.5">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2551,106 +2046,106 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="4"/>
       <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="H11" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="I11" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="J11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="L11" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="M11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="N11" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="O11" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="P11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="Q11" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="R11" s="23" t="s">
         <v>89</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="10.5" customHeight="1">
       <c r="A12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>98</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>99</v>
       </c>
       <c r="G12" s="24">
         <v>1</v>
       </c>
       <c r="H12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>94</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>95</v>
       </c>
       <c r="J12" s="24">
         <v>100</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12" s="24">
         <v>10000</v>
@@ -2668,10 +2163,10 @@
         <v>1</v>
       </c>
       <c r="Q12" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R12" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2705,7 +2200,7 @@
     </row>
     <row r="16" spans="1:18" ht="28.5">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2727,7 +2222,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
@@ -2735,7 +2230,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
@@ -2743,13 +2238,13 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -2775,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -2851,7 +2346,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
@@ -2909,7 +2404,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="34"/>
@@ -2919,7 +2414,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
@@ -2928,10 +2423,10 @@
     </row>
     <row r="35" spans="1:6" ht="11.25">
       <c r="A35" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
@@ -2948,7 +2443,7 @@
     </row>
     <row r="37" spans="1:6" ht="11.25">
       <c r="A37" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -2961,7 +2456,7 @@
         <v>16</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -3019,7 +2514,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
@@ -3029,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
@@ -3067,7 +2562,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -3091,10 +2586,10 @@
         <v>31</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D49" s="45"/>
       <c r="F49" s="45"/>
@@ -3113,7 +2608,7 @@
     <row r="51" spans="1:6" ht="11.25">
       <c r="A51" s="41"/>
       <c r="B51" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="38" t="s">
         <v>41</v>
@@ -3126,7 +2621,7 @@
         <v>27</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" s="48"/>
       <c r="D52" s="49"/>
@@ -3134,10 +2629,10 @@
     </row>
     <row r="53" spans="1:6" ht="11.25">
       <c r="A53" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="48"/>
       <c r="D53" s="49"/>
@@ -3153,7 +2648,7 @@
     </row>
     <row r="55" spans="1:6" ht="11.25">
       <c r="A55" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
@@ -3164,7 +2659,7 @@
         <v>16</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
@@ -3184,10 +2679,10 @@
         <v>19</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D58" s="45"/>
     </row>
@@ -3204,7 +2699,7 @@
     <row r="60" spans="1:6" ht="11.25">
       <c r="A60" s="41"/>
       <c r="B60" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C60" s="38" t="s">
         <v>41</v>
@@ -3216,7 +2711,7 @@
         <v>12</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61" s="48"/>
       <c r="D61" s="49"/>
@@ -3231,52 +2726,14 @@
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
     </row>
-    <row r="68" spans="1:13" ht="11.25">
-      <c r="A68" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-    </row>
-    <row r="69" spans="1:13" ht="11.25">
-      <c r="A69" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-    </row>
     <row r="70" spans="1:13" ht="11.25">
-      <c r="A70" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
+      <c r="A70" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
@@ -3287,19 +2744,15 @@
       <c r="M70" s="29"/>
     </row>
     <row r="71" spans="1:13" ht="11.25">
-      <c r="A71" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="34"/>
+      <c r="A71" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
@@ -3310,17 +2763,15 @@
       <c r="M71" s="29"/>
     </row>
     <row r="72" spans="1:13" ht="11.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="34"/>
+      <c r="A72" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
@@ -3331,15 +2782,17 @@
       <c r="M72" s="29"/>
     </row>
     <row r="73" spans="1:13" ht="11.25">
-      <c r="A73" s="41"/>
+      <c r="A73" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="B73" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="38" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
@@ -3352,16 +2805,16 @@
       <c r="M73" s="29"/>
     </row>
     <row r="74" spans="1:13" ht="11.25">
-      <c r="A74" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" s="42"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
@@ -3373,16 +2826,16 @@
       <c r="M74" s="29"/>
     </row>
     <row r="75" spans="1:13" ht="11.25">
-      <c r="A75" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="42"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="E75" s="34"/>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
@@ -3394,10 +2847,16 @@
       <c r="M75" s="29"/>
     </row>
     <row r="76" spans="1:13" ht="11.25">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
+      <c r="A76" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="42"/>
       <c r="E76" s="34"/>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
@@ -3409,12 +2868,18 @@
       <c r="M76" s="29"/>
     </row>
     <row r="77" spans="1:13" ht="11.25">
-      <c r="A77" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
+      <c r="A77" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="42"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
       <c r="I77" s="34"/>
@@ -3424,14 +2889,11 @@
       <c r="M77" s="29"/>
     </row>
     <row r="78" spans="1:13" ht="11.25">
-      <c r="A78" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
       <c r="H78" s="34"/>
@@ -3442,15 +2904,12 @@
       <c r="M78" s="29"/>
     </row>
     <row r="79" spans="1:13" ht="11.25">
-      <c r="A79" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="F79" s="34"/>
+      <c r="A79" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
       <c r="G79" s="34"/>
       <c r="H79" s="34"/>
       <c r="I79" s="34"/>
@@ -3460,18 +2919,14 @@
       <c r="M79" s="29"/>
     </row>
     <row r="80" spans="1:13" ht="11.25">
-      <c r="A80" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="A80" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
       <c r="H80" s="34"/>
@@ -3482,16 +2937,14 @@
       <c r="M80" s="29"/>
     </row>
     <row r="81" spans="1:16" ht="11.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="38" t="s">
-        <v>23</v>
-      </c>
+      <c r="A81" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
       <c r="H81" s="34"/>
@@ -3502,15 +2955,17 @@
       <c r="M81" s="29"/>
     </row>
     <row r="82" spans="1:16" ht="11.25">
-      <c r="A82" s="41"/>
+      <c r="A82" s="35" t="s">
+        <v>19</v>
+      </c>
       <c r="B82" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C82" s="38" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
@@ -3522,16 +2977,16 @@
       <c r="M82" s="29"/>
     </row>
     <row r="83" spans="1:16" ht="11.25">
-      <c r="A83" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C83" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="42"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
@@ -3542,6 +2997,16 @@
       <c r="M83" s="29"/>
     </row>
     <row r="84" spans="1:16" ht="11.25">
+      <c r="A84" s="41"/>
+      <c r="B84" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
       <c r="H84" s="34"/>
@@ -3552,6 +3017,16 @@
       <c r="M84" s="29"/>
     </row>
     <row r="85" spans="1:16" ht="11.25">
+      <c r="A85" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="42"/>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
       <c r="H85" s="34"/>
@@ -3562,13 +3037,6 @@
       <c r="M85" s="29"/>
     </row>
     <row r="86" spans="1:16" ht="11.25">
-      <c r="A86" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
       <c r="H86" s="34"/>
@@ -3579,15 +3047,6 @@
       <c r="M86" s="29"/>
     </row>
     <row r="87" spans="1:16" ht="11.25">
-      <c r="A87" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
       <c r="H87" s="34"/>
@@ -3598,15 +3057,6 @@
       <c r="M87" s="29"/>
     </row>
     <row r="88" spans="1:16" ht="11.25">
-      <c r="A88" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B88" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
       <c r="H88" s="34"/>
@@ -3617,510 +3067,575 @@
       <c r="M88" s="29"/>
     </row>
     <row r="89" spans="1:16" ht="11.25">
-      <c r="A89" s="35" t="s">
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+    </row>
+    <row r="90" spans="1:16" ht="11.25">
+      <c r="A90" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+    </row>
+    <row r="91" spans="1:16" ht="11.25">
+      <c r="A91" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+    </row>
+    <row r="92" spans="1:16" ht="11.25">
+      <c r="A92" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+    </row>
+    <row r="93" spans="1:16" ht="11.25">
+      <c r="A93" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B93" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G93" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H93" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I93" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J93" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="K93" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L93" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="M93" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="N93" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="O93" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P93" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="11.25">
+      <c r="A94" s="40"/>
+      <c r="B94" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I94" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="J94" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L94" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M94" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N94" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O94" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P94" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="11.25">
+      <c r="A95" s="41"/>
+      <c r="B95" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="I95" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="J95" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="K95" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="L95" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="M95" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="N95" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="O95" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="P95" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="11.25">
+      <c r="A96" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C96" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D96" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E89" s="38" t="s">
+      <c r="E96" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G96" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H96" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I96" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J96" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K96" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="L96" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="M96" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="N96" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="O96" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P96" s="50"/>
+    </row>
+    <row r="97" spans="1:16" ht="11.25">
+      <c r="A97" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E97" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F97" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G97" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H97" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I97" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J97" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="L97" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="M97" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="N97" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="O97" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P97" s="50"/>
+    </row>
+    <row r="101" spans="1:16" ht="11.25">
+      <c r="A101" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+    </row>
+    <row r="102" spans="1:16" ht="11.25">
+      <c r="A102" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="34"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
+    </row>
+    <row r="103" spans="1:16" ht="11.25">
+      <c r="A103" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+    </row>
+    <row r="104" spans="1:16" ht="11.25">
+      <c r="A104" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="38" t="s">
+      <c r="G104" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G89" s="38" t="s">
+      <c r="H104" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I104" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J104" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="K104" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L104" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="M104" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="N104" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="O104" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P104" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="11.25">
+      <c r="A105" s="40"/>
+      <c r="B105" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I105" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="J105" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K105" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L105" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M105" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N105" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="O105" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P105" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="11.25">
+      <c r="A106" s="41"/>
+      <c r="B106" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H89" s="38" t="s">
+      <c r="H106" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="I106" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="J106" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="K106" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="L106" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="M106" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="N106" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="O106" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="P106" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="11.25">
+      <c r="A107" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E107" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F107" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G107" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="I89" s="38" t="s">
+      <c r="I107" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="J89" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="K89" s="38" t="s">
+      <c r="J107" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K107" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="L89" s="38" t="s">
+      <c r="L107" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="M107" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="M89" s="38" t="s">
+      <c r="N107" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="N89" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="O89" s="38" t="s">
+      <c r="O107" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="P89" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="11.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C90" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H90" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I90" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="J90" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K90" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="L90" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="M90" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="N90" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="O90" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P90" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="11.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F91" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H91" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="I91" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="J91" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="K91" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="L91" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="M91" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="N91" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="O91" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="P91" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="11.25">
-      <c r="A92" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C92" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D92" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E92" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F92" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G92" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H92" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="I92" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="J92" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="K92" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="L92" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M92" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="N92" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="O92" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="P92" s="50"/>
-    </row>
-    <row r="93" spans="1:16" ht="11.25">
-      <c r="A93" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D93" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E93" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F93" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G93" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H93" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="I93" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="J93" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="K93" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="L93" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M93" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="N93" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="O93" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="P93" s="50"/>
-    </row>
-    <row r="97" spans="1:16" ht="11.25">
-      <c r="A97" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29"/>
-    </row>
-    <row r="98" spans="1:16" ht="11.25">
-      <c r="A98" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-    </row>
-    <row r="99" spans="1:16" ht="11.25">
-      <c r="A99" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B99" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-    </row>
-    <row r="100" spans="1:16" ht="11.25">
-      <c r="A100" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C100" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D100" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E100" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F100" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G100" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="H100" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I100" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="J100" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="K100" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="L100" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="M100" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="N100" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="O100" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="P100" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" ht="11.25">
-      <c r="A101" s="40"/>
-      <c r="B101" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C101" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D101" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I101" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="J101" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K101" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="L101" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="M101" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="N101" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="O101" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P101" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" ht="11.25">
-      <c r="A102" s="41"/>
-      <c r="B102" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C102" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F102" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H102" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="I102" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="J102" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="K102" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="L102" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="M102" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="N102" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="O102" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="P102" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" ht="11.25">
-      <c r="A103" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E103" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F103" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G103" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="I103" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="J103" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="K103" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="L103" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M103" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="N103" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="O103" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="P103" s="50"/>
-    </row>
-    <row r="105" spans="1:16" ht="11.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="29"/>
+      <c r="P107" s="50"/>
+    </row>
+    <row r="109" spans="1:16" ht="11.25">
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
